--- a/biology/Médecine/Naphazoline/Naphazoline.xlsx
+++ b/biology/Médecine/Naphazoline/Naphazoline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La naphazoline est un composé organique de la famille des agonistes α1-adrénergiques. Elle est utilisée chez l'homme comme médicament pour traiter l'irritation de l'œil ou la congestion des muqueuses nasales en cas de rhinite.
@@ -512,9 +524,11 @@
           <t>Spécialités contenant de la naphazoline</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les médicaments contenant de la naphazoline commercialisés en France sont[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les médicaments contenant de la naphazoline commercialisés en France sont :
 Collyre bleu laiter (en association avec du méthylthioninium) ;
 Derinox (en association avec de la prednisolone) ;
 Xylocaïne à la naphazoline (en association avec de la lidocaïne).</t>
